--- a/data/databg.xlsx
+++ b/data/databg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5012a76d39cc81c0/WIZPAD/课程/毕业论文/data_nmjy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\A_Insider_trading\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4DA82427541F7ACA7EB8EFA08933986AE8DE10" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B99E165D-21DC-48ED-8DDB-B4793F075926}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64712E32-23D1-4D5B-B724-7F63F377D0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="2745" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2310" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,11 +593,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -880,20 +883,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,8 +924,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -945,7 +952,7 @@
         <v>20070821</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -971,7 +978,7 @@
         <v>20100608</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>20040727</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>20100211</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>19981007</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>20080306</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1108,7 @@
         <v>19981104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>20140219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>20090929</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>20070427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>20110318</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>20080625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>20091225</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>20120425</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
